--- a/软件项目跟踪与管理/Scrum master/bug tracker.xlsx
+++ b/软件项目跟踪与管理/Scrum master/bug tracker.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xf\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\个人文件备份\大三\大三下\软件工程综合实践\终期\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sprint1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>长时间无marker衣服仍渲染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>送衣快递O2O无法给用户发短信</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +300,54 @@
   </si>
   <si>
     <t>王祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在衣柜中连续点击next 四次程序崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Maker中点击SAVE程序崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Maker中Cloth name 为空时点击SAVE程序崩溃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标点击偏离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标的点击区域与显示区域有偏差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试衣部分反映延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在试衣界面换衣延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试衣部分衣服旋转不异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试衣界面衣服旋转不异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮四周有黑边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分点击按钮四周有黑边</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +357,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -369,7 +405,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,23 +688,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="30.1328125" customWidth="1"/>
-    <col min="4" max="4" width="53.265625" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" customWidth="1"/>
-    <col min="6" max="6" width="16.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="53.25" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -738,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -773,7 +809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -799,16 +835,16 @@
         <v>42110</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -822,26 +858,26 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
-        <v>40319</v>
+        <v>42145</v>
       </c>
       <c r="G5" s="2">
         <v>42149</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -855,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>42110</v>
@@ -867,16 +903,16 @@
         <v>42114</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -884,16 +920,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
-        <v>41757</v>
+        <v>42122</v>
       </c>
       <c r="G7" s="2">
         <v>42124</v>
@@ -902,16 +938,16 @@
         <v>42124</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -919,13 +955,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>42113</v>
@@ -937,16 +973,16 @@
         <v>42115</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -954,13 +990,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1">
         <v>42111</v>
@@ -972,16 +1008,16 @@
         <v>42114</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -989,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="1">
         <v>42126</v>
@@ -1007,16 +1043,16 @@
         <v>42127</v>
       </c>
       <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
         <v>62</v>
       </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
       <c r="K10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1024,13 +1060,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>42127</v>
@@ -1042,16 +1078,16 @@
         <v>42128</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1059,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
         <v>42131</v>
@@ -1075,16 +1111,16 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1092,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>40313</v>
@@ -1108,16 +1144,16 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1125,13 +1161,13 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
         <v>42142</v>
@@ -1141,16 +1177,16 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1158,13 +1194,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
         <v>42134</v>
@@ -1174,16 +1210,16 @@
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1191,31 +1227,229 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
-        <v>42114</v>
+        <v>42144</v>
       </c>
       <c r="G16" s="2">
-        <v>42116</v>
+        <v>42146</v>
       </c>
       <c r="H16" s="2">
         <v>42116</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42156</v>
+      </c>
+      <c r="G17" s="2">
+        <v>42156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1">
+        <v>42158</v>
+      </c>
+      <c r="G18" s="2">
+        <v>42159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42158</v>
+      </c>
+      <c r="G19" s="2">
+        <v>42160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1">
+        <v>42163</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42164</v>
+      </c>
+      <c r="G21" s="1">
+        <v>42165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1">
+        <v>42165</v>
+      </c>
+      <c r="G22" s="1">
+        <v>42166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1465,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
